--- a/Autumn_2024/Computer Architecture/Homework/Homework 6/Homework6.xlsx
+++ b/Autumn_2024/Computer Architecture/Homework/Homework 6/Homework6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Gage\Documents\College-Work\Autumn_2024\Computer Architecture\Homework\Homework 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88974702-1BD6-402F-91A1-F0779F4368D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363176D9-5EE1-4704-B219-8CF2DE01B94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5055" yWindow="30" windowWidth="12150" windowHeight="20910" activeTab="2" xr2:uid="{26271488-511D-43E0-980C-7C2104ED471F}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21270" xr2:uid="{26271488-511D-43E0-980C-7C2104ED471F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
   <si>
     <t>Stage 2</t>
   </si>
@@ -270,6 +270,12 @@
   </si>
   <si>
     <t>0x338-&gt;0x2E0-&gt;0x194-&gt;0x338</t>
+  </si>
+  <si>
+    <t>Misprediction</t>
+  </si>
+  <si>
+    <t>Cycle 9</t>
   </si>
 </sst>
 </file>
@@ -299,7 +305,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -418,11 +424,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -439,6 +454,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F444AEF-6986-4F05-8DAE-CB019214F10E}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,20 +1024,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466FDC69-B3EA-437A-AFA5-D226AD464A39}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F41" sqref="F41:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>14</v>
@@ -1046,8 +1067,11 @@
       <c r="I2" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -1060,23 +1084,26 @@
       <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="H3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1089,23 +1116,24 @@
       <c r="D4" s="5">
         <v>800</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="5"/>
+      <c r="F4" s="5">
         <v>804</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G4" s="5">
         <v>808</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>800</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I4" s="5">
         <v>804</v>
       </c>
-      <c r="I4" s="6">
+      <c r="J4" s="6">
         <v>808</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1118,23 +1146,24 @@
       <c r="D5" s="5">
         <v>70</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5">
         <v>1</v>
       </c>
-      <c r="F5" s="5">
+      <c r="G5" s="5">
         <v>60</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>70</v>
       </c>
-      <c r="H5" s="5">
+      <c r="I5" s="5">
         <v>1</v>
       </c>
-      <c r="I5" s="6">
+      <c r="J5" s="6">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1147,23 +1176,24 @@
       <c r="D6" s="5">
         <v>10</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="5"/>
+      <c r="F6" s="5">
         <v>70</v>
-      </c>
-      <c r="F6" s="5">
-        <v>10</v>
       </c>
       <c r="G6" s="5">
         <v>10</v>
       </c>
       <c r="H6" s="5">
+        <v>10</v>
+      </c>
+      <c r="I6" s="5">
         <v>70</v>
       </c>
-      <c r="I6" s="6">
+      <c r="J6" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1176,23 +1206,24 @@
       <c r="D7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="5"/>
+      <c r="F7" s="5">
         <v>69</v>
       </c>
-      <c r="F7" s="5">
+      <c r="G7" s="5">
         <v>70</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5">
+      <c r="I7" s="5">
         <v>69</v>
       </c>
-      <c r="I7" s="6">
+      <c r="J7" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1205,23 +1236,24 @@
       <c r="D8" s="5">
         <v>800</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="5"/>
+      <c r="F8" s="5">
         <v>69</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>70</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>800</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>69</v>
       </c>
-      <c r="I8" s="6">
+      <c r="J8" s="6">
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>13</v>
       </c>
@@ -1234,9 +1266,7 @@
       <c r="D9" s="5">
         <v>49</v>
       </c>
-      <c r="E9" s="5">
-        <v>69</v>
-      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="5">
         <v>69</v>
       </c>
@@ -1246,11 +1276,14 @@
       <c r="H9" s="5">
         <v>69</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="5">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>25</v>
       </c>
@@ -1263,9 +1296,7 @@
       <c r="D10" s="5">
         <v>70</v>
       </c>
-      <c r="E10" s="5">
-        <v>70</v>
-      </c>
+      <c r="E10" s="5"/>
       <c r="F10" s="5">
         <v>70</v>
       </c>
@@ -1275,11 +1306,14 @@
       <c r="H10" s="5">
         <v>70</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="5">
         <v>70</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>26</v>
       </c>
@@ -1292,9 +1326,7 @@
       <c r="D11" s="8">
         <v>10</v>
       </c>
-      <c r="E11" s="8">
-        <v>10</v>
-      </c>
+      <c r="E11" s="8"/>
       <c r="F11" s="8">
         <v>10</v>
       </c>
@@ -1304,7 +1336,10 @@
       <c r="H11" s="8">
         <v>10</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
+        <v>10</v>
+      </c>
+      <c r="J11" s="9">
         <v>10</v>
       </c>
     </row>
@@ -1318,7 +1353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B23C0C-3C89-4BE4-A04E-2619E498A990}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/Autumn_2024/Computer Architecture/Homework/Homework 6/Homework6.xlsx
+++ b/Autumn_2024/Computer Architecture/Homework/Homework 6/Homework6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Epic Gage\Documents\College-Work\Autumn_2024\Computer Architecture\Homework\Homework 6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{363176D9-5EE1-4704-B219-8CF2DE01B94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EC1533-2B17-4D1B-9B07-4763F265EE1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="21270" xr2:uid="{26271488-511D-43E0-980C-7C2104ED471F}"/>
+    <workbookView xWindow="38340" yWindow="-420" windowWidth="16320" windowHeight="28470" activeTab="2" xr2:uid="{26271488-511D-43E0-980C-7C2104ED471F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="81">
   <si>
     <t>Stage 2</t>
   </si>
@@ -276,6 +276,9 @@
   </si>
   <si>
     <t>Cycle 9</t>
+  </si>
+  <si>
+    <t>Add</t>
   </si>
 </sst>
 </file>
@@ -770,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F444AEF-6986-4F05-8DAE-CB019214F10E}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,17 +804,20 @@
     <col min="43" max="43" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -825,8 +831,21 @@
       <c r="E4" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -842,8 +861,23 @@
       <c r="E5" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5">
+        <v>20</v>
+      </c>
+      <c r="J5" s="5">
+        <v>20</v>
+      </c>
+      <c r="K5" s="5">
+        <v>20</v>
+      </c>
+      <c r="L5" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -859,8 +893,23 @@
       <c r="E6" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>15</v>
+      </c>
+      <c r="J6" s="5">
+        <v>15</v>
+      </c>
+      <c r="K6" s="5">
+        <v>15</v>
+      </c>
+      <c r="L6" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -876,8 +925,23 @@
       <c r="E7" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -893,8 +957,23 @@
       <c r="E8" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -910,13 +989,31 @@
       <c r="E9" s="9">
         <v>2004</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2004</v>
+      </c>
+      <c r="J9" s="8">
+        <v>2004</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2004</v>
+      </c>
+      <c r="L9" s="9">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>0</v>
@@ -930,8 +1027,21 @@
       <c r="E14" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+      <c r="I14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>4</v>
       </c>
@@ -947,8 +1057,23 @@
       <c r="E15" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="5">
+        <v>15</v>
+      </c>
+      <c r="J15" s="5">
+        <v>15</v>
+      </c>
+      <c r="K15" s="5">
+        <v>15</v>
+      </c>
+      <c r="L15" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>5</v>
       </c>
@@ -964,8 +1089,23 @@
       <c r="E16" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
@@ -981,8 +1121,23 @@
       <c r="E17" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
@@ -998,8 +1153,23 @@
       <c r="E18" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="5">
+        <v>2004</v>
+      </c>
+      <c r="L18" s="6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
@@ -1013,6 +1183,21 @@
         <v>2004</v>
       </c>
       <c r="E19" s="9">
+        <v>15</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="8">
+        <v>2004</v>
+      </c>
+      <c r="J19" s="8">
+        <v>15</v>
+      </c>
+      <c r="K19" s="8">
+        <v>15</v>
+      </c>
+      <c r="L19" s="9">
         <v>15</v>
       </c>
     </row>
@@ -1024,10 +1209,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466FDC69-B3EA-437A-AFA5-D226AD464A39}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F41" sqref="F41:F43"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1343,6 +1528,300 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="6"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5">
+        <v>804</v>
+      </c>
+      <c r="C16" s="5">
+        <v>808</v>
+      </c>
+      <c r="D16" s="5">
+        <v>812</v>
+      </c>
+      <c r="E16" s="5">
+        <v>800</v>
+      </c>
+      <c r="F16" s="5">
+        <v>804</v>
+      </c>
+      <c r="G16" s="5">
+        <v>808</v>
+      </c>
+      <c r="H16" s="5">
+        <v>800</v>
+      </c>
+      <c r="I16" s="5">
+        <v>804</v>
+      </c>
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="5">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5">
+        <v>50</v>
+      </c>
+      <c r="F17" s="5">
+        <v>50</v>
+      </c>
+      <c r="G17" s="5">
+        <v>50</v>
+      </c>
+      <c r="H17" s="5">
+        <v>10</v>
+      </c>
+      <c r="I17" s="5">
+        <v>50</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="5">
+        <v>50</v>
+      </c>
+      <c r="E18" s="5">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5">
+        <v>70</v>
+      </c>
+      <c r="G18" s="5">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5">
+        <v>50</v>
+      </c>
+      <c r="I18" s="5">
+        <v>70</v>
+      </c>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="5">
+        <v>49</v>
+      </c>
+      <c r="E19" s="5">
+        <v>70</v>
+      </c>
+      <c r="F19" s="5">
+        <v>70</v>
+      </c>
+      <c r="G19" s="5">
+        <v>70</v>
+      </c>
+      <c r="H19" s="5">
+        <v>49</v>
+      </c>
+      <c r="I19" s="5">
+        <v>70</v>
+      </c>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="5">
+        <v>49</v>
+      </c>
+      <c r="F20" s="5">
+        <v>49</v>
+      </c>
+      <c r="G20" s="5">
+        <v>49</v>
+      </c>
+      <c r="H20" s="5">
+        <v>49</v>
+      </c>
+      <c r="I20" s="5">
+        <v>49</v>
+      </c>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5">
+        <v>55</v>
+      </c>
+      <c r="C21" s="5">
+        <v>55</v>
+      </c>
+      <c r="D21" s="5">
+        <v>55</v>
+      </c>
+      <c r="E21" s="5">
+        <v>55</v>
+      </c>
+      <c r="F21" s="5">
+        <v>69</v>
+      </c>
+      <c r="G21" s="5">
+        <v>69</v>
+      </c>
+      <c r="H21" s="5">
+        <v>69</v>
+      </c>
+      <c r="I21" s="5">
+        <v>69</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="5">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5">
+        <v>70</v>
+      </c>
+      <c r="D22" s="5">
+        <v>70</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5">
+        <v>70</v>
+      </c>
+      <c r="G22" s="5">
+        <v>70</v>
+      </c>
+      <c r="H22" s="5">
+        <v>70</v>
+      </c>
+      <c r="I22" s="5">
+        <v>70</v>
+      </c>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="8">
+        <v>10</v>
+      </c>
+      <c r="C23" s="8">
+        <v>10</v>
+      </c>
+      <c r="D23" s="8">
+        <v>10</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
+        <v>10</v>
+      </c>
+      <c r="G23" s="8">
+        <v>10</v>
+      </c>
+      <c r="H23" s="8">
+        <v>10</v>
+      </c>
+      <c r="I23" s="8">
+        <v>10</v>
+      </c>
+      <c r="J23" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1353,8 +1832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90B23C0C-3C89-4BE4-A04E-2619E498A990}">
   <dimension ref="A1:S88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
